--- a/24_Artefatos_ac10/17. TabParaAnaliseDeEventos - Case 1 -Analise de Cotação.xlsx
+++ b/24_Artefatos_ac10/17. TabParaAnaliseDeEventos - Case 1 -Analise de Cotação.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryck\Desktop\Faculdade\OPE\Artefatos corrigidos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ace\Documents\artefatosOPE\24_Artefatos_ac10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9348"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Externo</t>
   </si>
@@ -122,28 +122,10 @@
     <t>Cliente seleciona fornecedor</t>
   </si>
   <si>
-    <t xml:space="preserve">Grupo DPx3 </t>
-  </si>
-  <si>
-    <t>Dijair Vieira Ribeiro, 1801921</t>
-  </si>
-  <si>
-    <t>Patryck Antonio Fragoso, 1801422</t>
-  </si>
-  <si>
-    <t>Paulo Miguel Patricio Santana 1802175</t>
-  </si>
-  <si>
-    <t>Paulo Willian Paixão da Silva, 1802012</t>
-  </si>
-  <si>
     <t>Cliente solicita pedido de cotação</t>
   </si>
   <si>
     <t>Atendente envia pedido de cotação</t>
-  </si>
-  <si>
-    <t>Leonardo Moura Bombem Mancini, 1800196</t>
   </si>
   <si>
     <t>Intermediador analisa orçamento</t>
@@ -734,19 +716,19 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" customWidth="1"/>
-    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.44140625" customWidth="1"/>
-    <col min="5" max="10" width="10.44140625" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.42578125" customWidth="1"/>
+    <col min="5" max="10" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="20"/>
       <c r="C1" s="21"/>
@@ -762,7 +744,7 @@
       <c r="I1" s="24"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="32.25" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>2</v>
       </c>
@@ -792,7 +774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>19</v>
       </c>
@@ -803,7 +785,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="9" t="s">
@@ -814,14 +796,14 @@
       <c r="I3" s="11"/>
       <c r="J3" s="12"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="29"/>
       <c r="C4" s="7">
         <v>2</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -832,14 +814,14 @@
       <c r="I4" s="11"/>
       <c r="J4" s="12"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="29"/>
       <c r="C5" s="7">
         <v>3</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -850,14 +832,14 @@
       <c r="I5" s="11"/>
       <c r="J5" s="12"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="29"/>
       <c r="C6" s="7">
         <v>4</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="8"/>
@@ -868,7 +850,7 @@
       <c r="I6" s="11"/>
       <c r="J6" s="12"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="29"/>
       <c r="C7" s="7">
@@ -886,7 +868,7 @@
       <c r="I7" s="11"/>
       <c r="J7" s="12"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="27" t="s">
         <v>12</v>
@@ -895,7 +877,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>16</v>
@@ -906,7 +888,7 @@
       <c r="I8" s="11"/>
       <c r="J8" s="12"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="B9" s="27"/>
       <c r="C9" s="7">
@@ -924,35 +906,23 @@
       </c>
       <c r="J9" s="12"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D12" s="17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D13" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D14" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D15" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D16" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D17" s="17" t="s">
-        <v>28</v>
-      </c>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D12" s="17"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D13" s="17"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D14" s="17"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D15" s="17"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D16" s="17"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="7">
